--- a/data.xlsx
+++ b/data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\InventoryEconomic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3524B532-3358-43CF-8590-EE5A3436CA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC20174B-4A2B-41EF-8D6D-AA533A5A9381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3936" yWindow="5040" windowWidth="18804" windowHeight="7728" xr2:uid="{CDC6A117-27C0-48A6-9BB4-82EAB83B5F67}"/>
+    <workbookView xWindow="3852" yWindow="6096" windowWidth="18804" windowHeight="7728" activeTab="1" xr2:uid="{CDC6A117-27C0-48A6-9BB4-82EAB83B5F67}"/>
   </bookViews>
   <sheets>
     <sheet name="data_login" sheetId="1" r:id="rId1"/>
+    <sheet name="list_product" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Username</t>
   </si>
@@ -81,6 +82,30 @@
   </si>
   <si>
     <t>Epic sadface: Password is required</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Sauce Labs Backpack</t>
+  </si>
+  <si>
+    <t>Sauce Labs Bike Light</t>
+  </si>
+  <si>
+    <t>Sauce Labs Bolt T-Shirt</t>
+  </si>
+  <si>
+    <t>Sauce Labs Fleece Jacket</t>
+  </si>
+  <si>
+    <t>Sauce Labs Onesie</t>
+  </si>
+  <si>
+    <t>Test.allTheThings() T-Shirt (Red)</t>
+  </si>
+  <si>
+    <t>Product Price</t>
   </si>
 </sst>
 </file>
@@ -454,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0D0696-1457-4023-8458-903AEB5F2337}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,4 +584,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C48D84D-57AB-47DD-8BFC-B8FCD1F60EFB}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>15.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\InventoryEconomic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC20174B-4A2B-41EF-8D6D-AA533A5A9381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2878523-D585-4323-8214-93DB75E26521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3852" yWindow="6096" windowWidth="18804" windowHeight="7728" activeTab="1" xr2:uid="{CDC6A117-27C0-48A6-9BB4-82EAB83B5F67}"/>
+    <workbookView xWindow="3852" yWindow="4632" windowWidth="18804" windowHeight="7728" activeTab="1" xr2:uid="{CDC6A117-27C0-48A6-9BB4-82EAB83B5F67}"/>
   </bookViews>
   <sheets>
     <sheet name="data_login" sheetId="1" r:id="rId1"/>
-    <sheet name="list_product" sheetId="2" r:id="rId2"/>
+    <sheet name="your_information" sheetId="3" r:id="rId2"/>
+    <sheet name="list_product" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>Username</t>
   </si>
@@ -106,6 +107,36 @@
   </si>
   <si>
     <t>Product Price</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Giang</t>
+  </si>
+  <si>
+    <t>Vu</t>
+  </si>
+  <si>
+    <t>Error: First Name is required</t>
+  </si>
+  <si>
+    <t>Huong</t>
+  </si>
+  <si>
+    <t>Error: Last Name is required</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
+  </si>
+  <si>
+    <t>Error: Postal Code is required</t>
   </si>
 </sst>
 </file>
@@ -480,7 +511,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,10 +618,112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45AB61E-31AE-4305-BD2B-F8F5EF2AD715}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>123456</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>123456</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>123456</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C48D84D-57AB-47DD-8BFC-B8FCD1F60EFB}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
